--- a/Score.xlsx
+++ b/Score.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codechilli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praba\Desktop\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080ECDB-C15B-574C-8924-C6C811CCF86A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16380" tabRatio="843" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="16380" tabRatio="843" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,14 @@
     <sheet name="Round 04" sheetId="8" r:id="rId5"/>
     <sheet name="Final Results" sheetId="9" r:id="rId6"/>
     <sheet name="Pivot" sheetId="14" r:id="rId7"/>
+    <sheet name="Results" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Teams!$B$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Team</t>
   </si>
@@ -160,12 +160,21 @@
   <si>
     <t>Anonymouse</t>
   </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Tie Breaker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +218,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,39 +326,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -352,6 +364,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -366,7 +392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Praba Ponnambalam" refreshedDate="43385.838410185184" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Praba Ponnambalam" refreshedDate="43385.838410185184" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="H1:I31" sheet="Teams"/>
   </cacheSource>
@@ -544,7 +570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -709,7 +735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="2">
@@ -1052,25 +1078,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1</v>
       </c>
@@ -1123,7 +1149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -1150,7 +1176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -1177,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -1204,7 +1230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -1258,7 +1284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>7</v>
       </c>
@@ -1285,7 +1311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -1312,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -1339,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -1366,7 +1392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -1420,7 +1446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -1447,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -1474,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -1501,7 +1527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>16</v>
       </c>
@@ -1528,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -1555,7 +1581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -1582,7 +1608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -1609,7 +1635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -1636,7 +1662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -1663,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -1690,7 +1716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -1717,7 +1743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -1744,7 +1770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -1771,7 +1797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -1798,7 +1824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -1825,7 +1851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -1852,7 +1878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>29</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>30</v>
       </c>
@@ -1911,12 +1937,12 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="D2:H31">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1924,26 +1950,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.42578125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="str">
         <f>Teams!C2</f>
         <v>Anonymouse</v>
@@ -1965,7 +1991,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Anonymouse&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;td class='first-column'&gt;Red Devils&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Teams!C3</f>
         <v>AP Warriors</v>
@@ -1987,7 +2013,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;AP Warriors&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;td class='first-column'&gt;Scicom&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Teams!C4</f>
         <v xml:space="preserve">Azerty </v>
@@ -2009,7 +2035,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Azerty &lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Sharp Shooters &lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Teams!C5</f>
         <v>Baby Boys</v>
@@ -2031,7 +2057,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Baby Boys&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Smarties &lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>Teams!C6</f>
         <v>CFSS Giants</v>
@@ -2053,7 +2079,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;CFSS Giants&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Springboks&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Teams!C7</f>
         <v>DBS Admin Warriors</v>
@@ -2075,7 +2101,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DBS Admin Warriors&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Team Apple&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>Teams!C8</f>
         <v>DE Tac Team 01</v>
@@ -2097,7 +2123,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DE Tac Team 01&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Team Numero&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Teams!C9</f>
         <v>Formerly Known As Compadres</v>
@@ -2119,7 +2145,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Formerly Known As Compadres&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Team Psycho&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>Teams!C10</f>
         <v>Foster Boys</v>
@@ -2141,7 +2167,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Foster Boys&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Team Simple&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>Teams!C11</f>
         <v>Hawk</v>
@@ -2163,7 +2189,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Hawk&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Team Venom&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>Teams!C12</f>
         <v>Just Here For Food</v>
@@ -2185,7 +2211,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Just Here For Food&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;The K-Team&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>Teams!C13</f>
         <v>Knowledge Hunters</v>
@@ -2207,7 +2233,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Knowledge Hunters&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Unicon&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>Teams!C14</f>
         <v>NQA</v>
@@ -2229,7 +2255,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;NQA&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Venom Rinzy&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f>Teams!C15</f>
         <v>Poisoners</v>
@@ -2251,7 +2277,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Poisoners&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;White Devils&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f>Teams!C16</f>
         <v>Prism</v>
@@ -2279,26 +2305,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.42578125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="str">
         <f>Teams!C2</f>
         <v>Anonymouse</v>
@@ -2320,7 +2346,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Anonymouse&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Red Devils&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Teams!C3</f>
         <v>AP Warriors</v>
@@ -2342,7 +2368,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;AP Warriors&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Scicom&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Teams!C4</f>
         <v xml:space="preserve">Azerty </v>
@@ -2364,7 +2390,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Azerty &lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Sharp Shooters &lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Teams!C5</f>
         <v>Baby Boys</v>
@@ -2386,7 +2412,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Baby Boys&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;Smarties &lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>Teams!C6</f>
         <v>CFSS Giants</v>
@@ -2408,7 +2434,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;CFSS Giants&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Springboks&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Teams!C7</f>
         <v>DBS Admin Warriors</v>
@@ -2430,7 +2456,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DBS Admin Warriors&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;Team Apple&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>Teams!C8</f>
         <v>DE Tac Team 01</v>
@@ -2452,7 +2478,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DE Tac Team 01&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Team Numero&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Teams!C9</f>
         <v>Formerly Known As Compadres</v>
@@ -2474,7 +2500,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Formerly Known As Compadres&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Team Psycho&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>Teams!C10</f>
         <v>Foster Boys</v>
@@ -2496,7 +2522,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Foster Boys&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;Team Simple&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>Teams!C11</f>
         <v>Hawk</v>
@@ -2518,7 +2544,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Hawk&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Team Venom&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>Teams!C12</f>
         <v>Just Here For Food</v>
@@ -2540,7 +2566,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Just Here For Food&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;The K-Team&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>Teams!C13</f>
         <v>Knowledge Hunters</v>
@@ -2562,7 +2588,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Knowledge Hunters&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;Unicon&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>Teams!C14</f>
         <v>NQA</v>
@@ -2584,7 +2610,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;NQA&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Venom Rinzy&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f>Teams!C15</f>
         <v>Poisoners</v>
@@ -2606,7 +2632,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Poisoners&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;White Devils&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f>Teams!C16</f>
         <v>Prism</v>
@@ -2634,26 +2660,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.42578125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="str">
         <f>Teams!C2</f>
         <v>Anonymouse</v>
@@ -2675,7 +2701,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Anonymouse&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Red Devils&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Teams!C3</f>
         <v>AP Warriors</v>
@@ -2697,7 +2723,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;AP Warriors&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Scicom&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Teams!C4</f>
         <v xml:space="preserve">Azerty </v>
@@ -2719,7 +2745,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Azerty &lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;td class='first-column'&gt;Sharp Shooters &lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Teams!C5</f>
         <v>Baby Boys</v>
@@ -2741,7 +2767,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Baby Boys&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Smarties &lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>Teams!C6</f>
         <v>CFSS Giants</v>
@@ -2763,7 +2789,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;CFSS Giants&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Springboks&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Teams!C7</f>
         <v>DBS Admin Warriors</v>
@@ -2785,7 +2811,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DBS Admin Warriors&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;td class='first-column'&gt;Team Apple&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>Teams!C8</f>
         <v>DE Tac Team 01</v>
@@ -2807,7 +2833,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DE Tac Team 01&lt;/td&gt;&lt;td class='second-column'&gt;10&lt;/td&gt;&lt;td class='first-column'&gt;Team Numero&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Teams!C9</f>
         <v>Formerly Known As Compadres</v>
@@ -2829,7 +2855,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Formerly Known As Compadres&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;td class='first-column'&gt;Team Psycho&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>Teams!C10</f>
         <v>Foster Boys</v>
@@ -2851,7 +2877,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Foster Boys&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Team Simple&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>Teams!C11</f>
         <v>Hawk</v>
@@ -2873,7 +2899,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Hawk&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Team Venom&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>Teams!C12</f>
         <v>Just Here For Food</v>
@@ -2895,7 +2921,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Just Here For Food&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;The K-Team&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>Teams!C13</f>
         <v>Knowledge Hunters</v>
@@ -2917,7 +2943,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Knowledge Hunters&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;td class='first-column'&gt;Unicon&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>Teams!C14</f>
         <v>NQA</v>
@@ -2939,7 +2965,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;NQA&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;td class='first-column'&gt;Venom Rinzy&lt;/td&gt;&lt;td class='second-column'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f>Teams!C15</f>
         <v>Poisoners</v>
@@ -2961,7 +2987,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Poisoners&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;White Devils&lt;/td&gt;&lt;td class='second-column'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f>Teams!C16</f>
         <v>Prism</v>
@@ -2989,26 +3015,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="138.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="138.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="str">
         <f>Teams!C2</f>
         <v>Anonymouse</v>
@@ -3030,7 +3056,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Anonymouse&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;Red Devils&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Teams!C3</f>
         <v>AP Warriors</v>
@@ -3052,7 +3078,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;AP Warriors&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Scicom&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Teams!C4</f>
         <v xml:space="preserve">Azerty </v>
@@ -3074,7 +3100,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Azerty &lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Sharp Shooters &lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Teams!C5</f>
         <v>Baby Boys</v>
@@ -3096,7 +3122,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Baby Boys&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Smarties &lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>Teams!C6</f>
         <v>CFSS Giants</v>
@@ -3118,7 +3144,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;CFSS Giants&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;td class='first-column'&gt;Springboks&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Teams!C7</f>
         <v>DBS Admin Warriors</v>
@@ -3140,7 +3166,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DBS Admin Warriors&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;td class='first-column'&gt;Team Apple&lt;/td&gt;&lt;td class='second-column'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>Teams!C8</f>
         <v>DE Tac Team 01</v>
@@ -3162,7 +3188,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DE Tac Team 01&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;td class='first-column'&gt;Team Numero&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Teams!C9</f>
         <v>Formerly Known As Compadres</v>
@@ -3184,7 +3210,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Formerly Known As Compadres&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;td class='first-column'&gt;Team Psycho&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>Teams!C10</f>
         <v>Foster Boys</v>
@@ -3206,7 +3232,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Foster Boys&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Team Simple&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>Teams!C11</f>
         <v>Hawk</v>
@@ -3228,7 +3254,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Hawk&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;td class='first-column'&gt;Team Venom&lt;/td&gt;&lt;td class='second-column'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>Teams!C12</f>
         <v>Just Here For Food</v>
@@ -3250,7 +3276,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Just Here For Food&lt;/td&gt;&lt;td class='second-column'&gt;7&lt;/td&gt;&lt;td class='first-column'&gt;The K-Team&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>Teams!C13</f>
         <v>Knowledge Hunters</v>
@@ -3272,7 +3298,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Knowledge Hunters&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;td class='first-column'&gt;Unicon&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>Teams!C14</f>
         <v>NQA</v>
@@ -3294,7 +3320,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;NQA&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;td class='first-column'&gt;Venom Rinzy&lt;/td&gt;&lt;td class='second-column'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f>Teams!C15</f>
         <v>Poisoners</v>
@@ -3316,7 +3342,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Poisoners&lt;/td&gt;&lt;td class='second-column'&gt;9&lt;/td&gt;&lt;td class='first-column'&gt;White Devils&lt;/td&gt;&lt;td class='second-column'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f>Teams!C16</f>
         <v>Prism</v>
@@ -3344,26 +3370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="85.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.42578125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="str">
         <f>Teams!C2</f>
         <v>Anonymouse</v>
@@ -3385,7 +3411,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Anonymouse&lt;/td&gt;&lt;td class='second-column'&gt;24&lt;/td&gt;&lt;td class='first-column'&gt;Red Devils&lt;/td&gt;&lt;td class='second-column'&gt;23&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Teams!C3</f>
         <v>AP Warriors</v>
@@ -3407,7 +3433,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;AP Warriors&lt;/td&gt;&lt;td class='second-column'&gt;21&lt;/td&gt;&lt;td class='first-column'&gt;Scicom&lt;/td&gt;&lt;td class='second-column'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Teams!C4</f>
         <v xml:space="preserve">Azerty </v>
@@ -3429,7 +3455,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Azerty &lt;/td&gt;&lt;td class='second-column'&gt;22&lt;/td&gt;&lt;td class='first-column'&gt;Sharp Shooters &lt;/td&gt;&lt;td class='second-column'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Teams!C5</f>
         <v>Baby Boys</v>
@@ -3451,7 +3477,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Baby Boys&lt;/td&gt;&lt;td class='second-column'&gt;27&lt;/td&gt;&lt;td class='first-column'&gt;Smarties &lt;/td&gt;&lt;td class='second-column'&gt;26&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="str">
         <f>Teams!C6</f>
         <v>CFSS Giants</v>
@@ -3473,7 +3499,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;CFSS Giants&lt;/td&gt;&lt;td class='second-column'&gt;21&lt;/td&gt;&lt;td class='first-column'&gt;Springboks&lt;/td&gt;&lt;td class='second-column'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Teams!C7</f>
         <v>DBS Admin Warriors</v>
@@ -3495,7 +3521,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DBS Admin Warriors&lt;/td&gt;&lt;td class='second-column'&gt;17&lt;/td&gt;&lt;td class='first-column'&gt;Team Apple&lt;/td&gt;&lt;td class='second-column'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="str">
         <f>Teams!C8</f>
         <v>DE Tac Team 01</v>
@@ -3517,7 +3543,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;DE Tac Team 01&lt;/td&gt;&lt;td class='second-column'&gt;29&lt;/td&gt;&lt;td class='first-column'&gt;Team Numero&lt;/td&gt;&lt;td class='second-column'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Teams!C9</f>
         <v>Formerly Known As Compadres</v>
@@ -3539,7 +3565,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Formerly Known As Compadres&lt;/td&gt;&lt;td class='second-column'&gt;34&lt;/td&gt;&lt;td class='first-column'&gt;Team Psycho&lt;/td&gt;&lt;td class='second-column'&gt;12&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>Teams!C10</f>
         <v>Foster Boys</v>
@@ -3561,7 +3587,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Foster Boys&lt;/td&gt;&lt;td class='second-column'&gt;24&lt;/td&gt;&lt;td class='first-column'&gt;Team Simple&lt;/td&gt;&lt;td class='second-column'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>Teams!C11</f>
         <v>Hawk</v>
@@ -3583,7 +3609,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Hawk&lt;/td&gt;&lt;td class='second-column'&gt;19&lt;/td&gt;&lt;td class='first-column'&gt;Team Venom&lt;/td&gt;&lt;td class='second-column'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>Teams!C12</f>
         <v>Just Here For Food</v>
@@ -3605,7 +3631,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Just Here For Food&lt;/td&gt;&lt;td class='second-column'&gt;27&lt;/td&gt;&lt;td class='first-column'&gt;The K-Team&lt;/td&gt;&lt;td class='second-column'&gt;25&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>Teams!C13</f>
         <v>Knowledge Hunters</v>
@@ -3627,7 +3653,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Knowledge Hunters&lt;/td&gt;&lt;td class='second-column'&gt;22&lt;/td&gt;&lt;td class='first-column'&gt;Unicon&lt;/td&gt;&lt;td class='second-column'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>Teams!C14</f>
         <v>NQA</v>
@@ -3649,7 +3675,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;NQA&lt;/td&gt;&lt;td class='second-column'&gt;22&lt;/td&gt;&lt;td class='first-column'&gt;Venom Rinzy&lt;/td&gt;&lt;td class='second-column'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f>Teams!C15</f>
         <v>Poisoners</v>
@@ -3671,7 +3697,7 @@
         <v>&lt;tr&gt;&lt;td class='first-column'&gt;Poisoners&lt;/td&gt;&lt;td class='second-column'&gt;27&lt;/td&gt;&lt;td class='first-column'&gt;White Devils&lt;/td&gt;&lt;td class='second-column'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f>Teams!C16</f>
         <v>Prism</v>
@@ -3702,20 +3728,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
@@ -3723,264 +3749,663 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14">
         <v>34</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="18">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="14">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="14">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="14">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="14">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="14">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="14">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="14">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="14">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="14">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="14">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="14">
         <v>657</v>
       </c>
+      <c r="C34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="20">
+        <v>30</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="20">
+        <v>30</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>10</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <v>13</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <v>14</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <v>15</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <v>17</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
+        <v>18</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>20</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>21</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <v>22</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <v>23</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
+        <v>24</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
+        <v>25</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <v>26</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
+        <v>28</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
+        <v>29</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="20">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="20">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
+</worksheet>
 </file>